--- a/MetaData.xlsx
+++ b/MetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxiaobing/Documents/GitHub/DA1002S1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F103C-EC1F-8941-A401-973A39719602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8DCEE5-0B00-634A-95A4-35024DF312FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15760" xr2:uid="{ABE0F903-18F4-4048-B31E-9BE28991CD6D}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15660" xr2:uid="{ABE0F903-18F4-4048-B31E-9BE28991CD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Dataset Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,35 +177,89 @@
     </r>
   </si>
   <si>
-    <t>The information provided within this data file was correct at time of publishing and is subject to change at any time. Dated: 25/10/2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Hospitals: A full list of health services, including name, address, contact details and Local Health District is available for download in CSV format.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NSW COVID-19 cases by location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NSW Health services by postcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COVID-19 cases by notification date and postcode, local health district, and local government area. The dataset is updated daily, except on weekends. The data is for confirmed COVID-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Coverage: 22 January 2020 - 15 October 2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type and form</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>The date of notification</t>
+  </si>
+  <si>
+    <t>String – year/month/day</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Suburb &amp; Town postcode</t>
+  </si>
+  <si>
+    <t>String of digits</t>
+  </si>
+  <si>
+    <t>LGA code</t>
+  </si>
+  <si>
+    <t>Local Government Area code</t>
+  </si>
+  <si>
+    <t>LGA Government Area</t>
+  </si>
+  <si>
+    <t>Local Government Area Name</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>State in short form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>Population Density</t>
+  </si>
+  <si>
+    <t>Population divided by area</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Percentage of The Aged</t>
+  </si>
+  <si>
+    <t>Percentage of population over 65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,16 +353,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -316,6 +415,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8EAADB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8EAADB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF8EAADB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -329,7 +489,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +519,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -676,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CB9589-582A-9D44-8480-720F8286CF18}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B10" sqref="B10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -690,7 +877,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -712,21 +899,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="85">
+    <row r="3" spans="1:4" ht="85">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51">
+    <row r="4" spans="1:4" ht="51">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -737,47 +924,119 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="70">
+    <row r="6" spans="1:4" ht="70">
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42">
+    <row r="7" spans="1:4" ht="42">
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="68">
+    </row>
+    <row r="9" spans="1:4" ht="69" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="37" thickBot="1">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="51">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51">
-      <c r="C11" s="3" t="s">
-        <v>12</v>
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52" thickBot="1">
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="35" thickBot="1">
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickBot="1">
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickBot="1">
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1">
+      <c r="B16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18" thickBot="1">
+      <c r="B17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
